--- a/KickerStats.xlsx
+++ b/KickerStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bewewer\Desktop\TEAM5_560\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CC04C-D2E3-4E8C-A525-F6ADDC8F8F5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32160024-C508-4F88-AEAA-A1A8564DC758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{542B9D07-005A-49FA-92CB-70EC17668831}"/>
   </bookViews>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B99491-E4C7-4251-A824-B982D1769ED5}">
   <dimension ref="A1:G801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A779" workbookViewId="0">
-      <selection activeCell="G801" sqref="G801"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
